--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC27-EQUIPO 3.5 ACERO#2.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC27-EQUIPO 3.5 ACERO#2.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F9DC84-C580-4B5A-85F7-385D0F1305D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD03017-7FDB-450A-ADA0-854E25EC8FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12645" yWindow="210" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -894,8 +883,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
@@ -1309,10 +1298,10 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1519,6 +1508,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1557,12 +1552,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1936,8 +1925,8 @@
   </sheetPr>
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,18 +1943,18 @@
     <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="87"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
-      <c r="C3" s="85"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="41" t="s">
         <v>201</v>
       </c>
@@ -1974,22 +1963,22 @@
     <row r="4" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
       <c r="B4" s="40"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="94" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="93"/>
+      <c r="E4" s="95"/>
     </row>
     <row r="5" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" s="44"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="92" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="91"/>
+      <c r="E5" s="93"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
@@ -2005,7 +1994,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="45">
         <f ca="1">NOW()</f>
-        <v>45392.678388194443</v>
+        <v>45397.895653472224</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
@@ -2044,10 +2033,10 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="83"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="12" t="s">
         <v>208</v>
       </c>
@@ -3493,7 +3482,7 @@
       <c r="C84" s="21"/>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
-      <c r="F84" s="94" t="s">
+      <c r="F84" s="81" t="s">
         <v>38</v>
       </c>
       <c r="G84" s="35">
@@ -3507,7 +3496,7 @@
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="95" t="s">
+      <c r="F85" s="82" t="s">
         <v>248</v>
       </c>
       <c r="G85" s="22">
@@ -3521,7 +3510,7 @@
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
-      <c r="F86" s="94" t="s">
+      <c r="F86" s="81" t="s">
         <v>21</v>
       </c>
       <c r="G86" s="22">
@@ -3530,22 +3519,22 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="81"/>
-      <c r="B88" s="81"/>
-      <c r="C88" s="81"/>
+      <c r="A88" s="83"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="83"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="81"/>
-      <c r="B89" s="81"/>
-      <c r="C89" s="81"/>
-      <c r="D89" s="81"/>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
+      <c r="A89" s="83"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
     </row>
     <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>

--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC27-EQUIPO 3.5 ACERO#2.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC27-EQUIPO 3.5 ACERO#2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD03017-7FDB-450A-ADA0-854E25EC8FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0650B5-3A2F-488D-905A-4BAF4349304D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12645" yWindow="210" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13095" yWindow="390" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="1" r:id="rId1"/>
@@ -1925,8 +1925,8 @@
   </sheetPr>
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +1994,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="45">
         <f ca="1">NOW()</f>
-        <v>45397.895653472224</v>
+        <v>45401.817052546299</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
